--- a/FedExApplication/src/TestFiles/FedExRateVerification_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/FedExRateVerification_DEV.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="43">
   <si>
     <t>Service</t>
   </si>
@@ -61,76 +61,88 @@
     <t>01915</t>
   </si>
   <si>
-    <t>$77.91</t>
-  </si>
-  <si>
-    <t>$231.91</t>
-  </si>
-  <si>
-    <t>$150.17</t>
-  </si>
-  <si>
-    <t>$317.25</t>
-  </si>
-  <si>
-    <t>$19.04</t>
+    <t>$19.10</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>$24.41</t>
+  </si>
+  <si>
+    <t>$28.65</t>
+  </si>
+  <si>
+    <t>$40.32</t>
+  </si>
+  <si>
+    <t>$53.06</t>
+  </si>
+  <si>
+    <t>$65.79</t>
+  </si>
+  <si>
+    <t>$78.15</t>
+  </si>
+  <si>
+    <t>$232.15</t>
+  </si>
+  <si>
+    <t>$15.94</t>
+  </si>
+  <si>
+    <t>$20.19</t>
+  </si>
+  <si>
+    <t>$24.44</t>
+  </si>
+  <si>
+    <t>$37.19</t>
+  </si>
+  <si>
+    <t>$49.94</t>
+  </si>
+  <si>
+    <t>$65.88</t>
+  </si>
+  <si>
+    <t>$12.75</t>
+  </si>
+  <si>
+    <t>$19.13</t>
+  </si>
+  <si>
+    <t>$29.75</t>
+  </si>
+  <si>
+    <t>$40.38</t>
+  </si>
+  <si>
+    <t>$48.88</t>
+  </si>
+  <si>
+    <t>$38.25</t>
+  </si>
+  <si>
+    <t>$57.38</t>
+  </si>
+  <si>
+    <t>$80.75</t>
+  </si>
+  <si>
+    <t>$106.25</t>
+  </si>
+  <si>
+    <t>$144.50</t>
+  </si>
+  <si>
+    <t>$520.88</t>
+  </si>
+  <si>
+    <t>$250.17</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>$24.32</t>
-  </si>
-  <si>
-    <t>$28.55</t>
-  </si>
-  <si>
-    <t>$40.19</t>
-  </si>
-  <si>
-    <t>$52.88</t>
-  </si>
-  <si>
-    <t>$65.57</t>
-  </si>
-  <si>
-    <t>$15.86</t>
-  </si>
-  <si>
-    <t>$20.09</t>
-  </si>
-  <si>
-    <t>$37.01</t>
-  </si>
-  <si>
-    <t>$49.70</t>
-  </si>
-  <si>
-    <t>$12.69</t>
-  </si>
-  <si>
-    <t>$29.61</t>
-  </si>
-  <si>
-    <t>$48.65</t>
-  </si>
-  <si>
-    <t>$38.07</t>
-  </si>
-  <si>
-    <t>$57.11</t>
-  </si>
-  <si>
-    <t>$80.37</t>
-  </si>
-  <si>
-    <t>$105.75</t>
-  </si>
-  <si>
-    <t>$473.23</t>
-  </si>
-  <si>
-    <t>$252.98</t>
   </si>
 </sst>
 </file>
@@ -190,32 +202,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="8" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="40" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -247,7 +253,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,10 +267,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,7 +428,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -431,13 +437,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -447,7 +453,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -456,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -465,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -475,12 +481,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -511,7 +517,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -530,7 +536,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -542,29 +548,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -600,14 +606,14 @@
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>19.04</v>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -621,14 +627,14 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
-        <v>24.32</v>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -642,14 +648,14 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
-        <v>28.55</v>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -663,14 +669,14 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
-        <v>40.19</v>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -684,14 +690,14 @@
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10">
-        <v>52.88</v>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -705,14 +711,14 @@
       <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
-        <v>65.569999999999993</v>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -726,14 +732,14 @@
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -747,14 +753,14 @@
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
+      <c r="D9" t="s">
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -768,14 +774,14 @@
       <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
-        <v>15.86</v>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -789,14 +795,14 @@
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="10">
-        <v>20.09</v>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -810,14 +816,14 @@
       <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
-        <v>24.32</v>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7"/>
     </row>
@@ -831,14 +837,14 @@
       <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
-        <v>37.01</v>
+      <c r="D13" t="s">
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -852,14 +858,14 @@
       <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
-        <v>49.7</v>
+      <c r="D14" t="s">
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7"/>
     </row>
@@ -873,14 +879,14 @@
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
-        <v>65.569999999999993</v>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -894,14 +900,14 @@
       <c r="C16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10">
-        <v>12.69</v>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -915,14 +921,14 @@
       <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="10">
-        <v>15.86</v>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -936,14 +942,14 @@
       <c r="C18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="10">
-        <v>19.04</v>
+      <c r="D18" t="s">
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -957,14 +963,14 @@
       <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="10">
-        <v>29.61</v>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -978,14 +984,14 @@
       <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="10">
-        <v>40.19</v>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -999,14 +1005,14 @@
       <c r="C21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
-        <v>48.65</v>
+      <c r="D21" t="s">
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1020,14 +1026,14 @@
       <c r="C22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="10">
-        <v>38.07</v>
+      <c r="D22" t="s">
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1041,14 +1047,14 @@
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
-        <v>48.65</v>
+      <c r="D23" t="s">
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1062,14 +1068,14 @@
       <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
-        <v>57.11</v>
+      <c r="D24" t="s">
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1083,14 +1089,14 @@
       <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
-        <v>80.37</v>
+      <c r="D25" t="s">
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1104,14 +1110,14 @@
       <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10">
-        <v>105.75</v>
+      <c r="D26" t="s">
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -1125,14 +1131,14 @@
       <c r="C27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="10">
-        <v>105.75</v>
+      <c r="D27" t="s">
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -1146,14 +1152,14 @@
       <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>17</v>
+      <c r="D28" t="s">
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1167,14 +1173,14 @@
       <c r="C29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>18</v>
+      <c r="D29" t="s">
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1189,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1210,13 +1216,13 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1249,22 +1255,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplication/src/TestFiles/FedExRateVerification_DEV.xlsx
+++ b/FedExApplication/src/TestFiles/FedExRateVerification_DEV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="43">
   <si>
     <t>Service</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
